--- a/設計メモ.xlsx
+++ b/設計メモ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4C13F6-4756-43E8-8CEB-22A205102D55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77BA662-D835-4FF9-8413-2E3AEB9EF16F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,16 +80,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>552105</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>140429</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>219595</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>559724</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>224249</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>227215</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>168830</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -104,8 +104,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12700562" y="2655029"/>
-          <a:ext cx="2032362" cy="2141220"/>
+          <a:off x="13664749" y="3896915"/>
+          <a:ext cx="2026584" cy="2102784"/>
           <a:chOff x="6416040" y="2415540"/>
           <a:chExt cx="2019300" cy="2141220"/>
         </a:xfrm>
@@ -210,25 +210,20 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
-              <a:t>年</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
+              <a:t>日付</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+              <a:t>(Date</a:t>
+            </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
-              <a:t>月</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
-              <a:t>日</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+              <a:t>型</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+              <a:t>)</a:t>
+            </a:r>
           </a:p>
           <a:p>
             <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -288,6 +283,14 @@
               <a:t>end</a:t>
             </a:r>
           </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>備考欄</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
@@ -295,16 +298,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>324395</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>100944</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>656904</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>45525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>332015</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>70465</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>664524</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>15046</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -319,8 +322,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6398624" y="6044544"/>
-          <a:ext cx="2032362" cy="1569721"/>
+          <a:off x="7382338" y="7219195"/>
+          <a:ext cx="2026584" cy="1540249"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -443,16 +446,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>272241</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>211434</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>604750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>156015</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>279862</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180954</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>612371</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>125535</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -467,8 +470,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9721041" y="2954634"/>
-          <a:ext cx="2032364" cy="1569720"/>
+          <a:off x="10688139" y="4190133"/>
+          <a:ext cx="2026585" cy="1540248"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -610,16 +613,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>279862</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>221413</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>612371</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165994</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>552105</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>11</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>219595</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180120</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -637,7 +640,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11585171" y="3989849"/>
+          <a:off x="12582698" y="5347594"/>
           <a:ext cx="937261" cy="14126"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -666,16 +669,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>335900</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>70552</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>31096</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>15133</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>343520</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>35589</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>38717</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>215698</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -690,8 +693,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13159271" y="6014152"/>
-          <a:ext cx="2032363" cy="1565237"/>
+          <a:off x="13476250" y="7190708"/>
+          <a:ext cx="2026585" cy="1537651"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -803,16 +806,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>12816</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>201389</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>345325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>118261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>16626</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>201930</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>349135</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>118802</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -827,8 +830,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15535845" y="2944589"/>
-          <a:ext cx="2028552" cy="2515141"/>
+          <a:off x="16481796" y="3706048"/>
+          <a:ext cx="2022773" cy="2465835"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="2512092"/>
         </a:xfrm>
@@ -984,6 +987,14 @@
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
           </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>承認ステータス</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
@@ -991,16 +1002,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>552104</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>215812</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>227215</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>157976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>12816</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>11345</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>345325</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165994</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1017,9 +1028,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14557664" y="3875317"/>
-          <a:ext cx="788497" cy="477523"/>
+        <a:xfrm flipV="1">
+          <a:off x="15522633" y="5339576"/>
+          <a:ext cx="783128" cy="8018"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1047,16 +1058,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>493174</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>21379</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>160665</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>201488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>500794</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>224839</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>168285</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>169420</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1071,8 +1082,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2517917" y="2535979"/>
-          <a:ext cx="2032363" cy="2260860"/>
+          <a:off x="3524335" y="3789275"/>
+          <a:ext cx="2026584" cy="2211014"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -1165,45 +1176,47 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng"/>
-              <a:t>カレンダー</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>dummy_id</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="wavyDbl" baseline="0"/>
+              <a:t>オフィス</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="wavyDbl" baseline="0"/>
               <a:t>ID</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>カレンダー名</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng"/>
-              <a:t>年</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng"/>
-              <a:t>月</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng"/>
-              <a:t>日</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+              <a:t>日付</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+              <a:t>(date</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+              <a:t>型</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+              <a:t>)</a:t>
+            </a:r>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
@@ -1227,16 +1240,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>493175</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>179320</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>160666</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>500794</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>148840</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>168285</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>93421</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1251,8 +1264,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2517918" y="6122920"/>
-          <a:ext cx="2032362" cy="1569720"/>
+          <a:off x="3524336" y="7297571"/>
+          <a:ext cx="2026583" cy="1540248"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -1365,7 +1378,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>割合</a:t>
+              <a:t>休みの種類</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
           </a:p>
@@ -1376,16 +1389,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>324395</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>101091</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>656904</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>45672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>332015</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>55768</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>664524</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>350</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1400,8 +1413,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6398624" y="2615691"/>
-          <a:ext cx="2032362" cy="2240677"/>
+          <a:off x="7382338" y="3857577"/>
+          <a:ext cx="2026584" cy="2193949"/>
           <a:chOff x="3261360" y="1693469"/>
           <a:chExt cx="2019300" cy="2230831"/>
         </a:xfrm>
@@ -1449,7 +1462,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>明細テーブル</a:t>
+              <a:t>明細履歴</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1495,23 +1508,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng"/>
-              <a:t>年</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng"/>
-              <a:t>月</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng"/>
-              <a:t>日</a:t>
+              <a:t>日付</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
           </a:p>
@@ -1552,16 +1549,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>332015</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>11</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>664524</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>272241</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>7666</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>604750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>187775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1579,7 +1576,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8312233" y="4003975"/>
+          <a:off x="9309760" y="5361720"/>
           <a:ext cx="1270263" cy="7655"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1608,16 +1605,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>660714</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>55768</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>328205</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>660714</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>100944</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>328205</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>45525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1632,7 +1629,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7310896" y="5001841"/>
+          <a:off x="8308423" y="6359586"/>
           <a:ext cx="0" cy="1222812"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1661,16 +1658,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>164475</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>224839</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>496984</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>169420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>164476</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>179320</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>496985</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123901</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1685,7 +1682,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3489566" y="4935384"/>
+          <a:off x="4487093" y="6293129"/>
           <a:ext cx="1" cy="1367645"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1714,16 +1711,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>500794</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>230900</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>168285</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>175481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>324395</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>7666</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>656904</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>187775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1741,7 +1738,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4490903" y="3999336"/>
+          <a:off x="5488430" y="5357081"/>
           <a:ext cx="1818656" cy="12294"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1770,16 +1767,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>270585</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>70552</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>603094</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>15133</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>278206</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>35588</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>610715</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>215697</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1794,8 +1791,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9719385" y="6014152"/>
-          <a:ext cx="2032364" cy="1565236"/>
+          <a:off x="10686483" y="7190708"/>
+          <a:ext cx="2026585" cy="1537650"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019301" cy="1569719"/>
         </a:xfrm>
@@ -1918,16 +1915,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>278206</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>90735</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>610715</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>36560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>335900</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>90736</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>31096</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>36561</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1945,8 +1942,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11751749" y="6948735"/>
-          <a:ext cx="1407522" cy="1"/>
+          <a:off x="12581042" y="8515542"/>
+          <a:ext cx="750418" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1974,16 +1971,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>611853</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180954</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>279344</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>125535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>613509</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>70552</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>281000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>15133</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2001,8 +1998,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10735567" y="4524354"/>
-          <a:ext cx="1656" cy="1489798"/>
+          <a:off x="11584653" y="6013717"/>
+          <a:ext cx="1656" cy="1538289"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2030,16 +2027,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>124690</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>576943</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>244433</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>61356</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2054,11 +2051,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10580914" y="1600200"/>
-          <a:ext cx="2144486" cy="925286"/>
+          <a:off x="12095017" y="6409706"/>
+          <a:ext cx="2114798" cy="952995"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -50969"/>
+            <a:gd name="adj2" fmla="val -90148"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -2101,16 +2101,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>210936</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>41368</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>364270</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>71539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>210937</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>126145</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>364271</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>169671</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2125,8 +2125,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15733965" y="6213568"/>
-          <a:ext cx="2024743" cy="1456377"/>
+          <a:off x="16496931" y="1190222"/>
+          <a:ext cx="2017059" cy="1448553"/>
           <a:chOff x="3259363" y="2354580"/>
           <a:chExt cx="2021297" cy="1455972"/>
         </a:xfrm>
@@ -2242,16 +2242,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>353977</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>93454</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>544477</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>41368</xdr:rowOff>
+      <xdr:colOff>364270</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>48452</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2263,14 +2263,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="129" idx="0"/>
-          <a:endCxn id="24" idx="2"/>
+          <a:stCxn id="130" idx="1"/>
+          <a:endCxn id="60" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="16455368" y="5539740"/>
-          <a:ext cx="190500" cy="763280"/>
+        <a:xfrm flipH="1">
+          <a:off x="12868160" y="2064969"/>
+          <a:ext cx="3632581" cy="542"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2298,16 +2298,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>391911</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>202547</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>59402</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>188698</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>390006</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>51600</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>57496</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>37751</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2322,8 +2322,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18614597" y="3402947"/>
-          <a:ext cx="2022838" cy="1449253"/>
+          <a:off x="19553827" y="4222816"/>
+          <a:ext cx="2015153" cy="1417876"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2023134" cy="1455916"/>
         </a:xfrm>
@@ -2436,16 +2436,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>20436</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>170962</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>349135</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>154177</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>397627</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>11559</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>63179</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>157976</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2463,8 +2463,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="17463610" y="4345397"/>
-          <a:ext cx="1048082" cy="72510"/>
+          <a:off x="18304626" y="5335777"/>
+          <a:ext cx="1044080" cy="3799"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2492,23 +2492,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>382657</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>49696</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>588101</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>219198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>504304</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>62487</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>24816</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12567</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="140" name="吹き出し: 四角形 139">
+        <xdr:cNvPr id="47" name="吹き出し: 四角形 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8782B7FB-28C8-4568-84E3-F9103431B6D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F076F5FA-B11D-460E-A916-8001F2F06C1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2516,11 +2516,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14471374" y="1441174"/>
-          <a:ext cx="2134321" cy="940443"/>
+          <a:off x="1263510" y="2695698"/>
+          <a:ext cx="2138351" cy="919051"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 64655"/>
+            <a:gd name="adj2" fmla="val 118041"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -2545,12 +2548,850 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>django</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>休日だけ登録する。</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>で複合キーはだめらしい</a:t>
+            <a:t>区分は一般の休みか休日だけ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>169923</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>81076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>166113</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>131272</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="48" name="グループ化 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BBD4E23-3E12-469E-9DC9-A0BE53EFB730}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3535498" y="1427687"/>
+          <a:ext cx="2013249" cy="1396807"/>
+          <a:chOff x="3258004" y="2354580"/>
+          <a:chExt cx="2022657" cy="979182"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="正方形/長方形 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDFE2ECB-D77C-46BE-879D-67D97C06EAD2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3261360" y="2354580"/>
+            <a:ext cx="2019300" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>オフィステーブル</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="正方形/長方形 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F08CB94-DD27-48C2-B8A3-88B722EA5820}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3258004" y="2658375"/>
+            <a:ext cx="2022657" cy="675387"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
+              <a:t>OfficeID</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>オフィス名</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>500881</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>131272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>502519</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>201488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線矢印コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC515662-CF39-41CD-B853-FC0DB7F92E18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="2"/>
+          <a:endCxn id="28" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4490990" y="2957599"/>
+          <a:ext cx="1638" cy="1012325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>437354</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>97264</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>134693</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="55" name="グループ化 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB23F7C-493B-4EAB-A978-ED62FC3804C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10526458" y="338853"/>
+          <a:ext cx="2341702" cy="3153795"/>
+          <a:chOff x="3250119" y="2069251"/>
+          <a:chExt cx="2356706" cy="3212132"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="56" name="正方形/長方形 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC44E03-45F5-4A45-851C-263A8204E91C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3250119" y="2069251"/>
+            <a:ext cx="2347378" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>交通費申請</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="60" name="正方形/長方形 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FF0FA32-7F0D-4447-8F97-9E3415662481}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3265194" y="2374312"/>
+            <a:ext cx="2341631" cy="2907071"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
+              <a:t>id</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="wavyDbl" baseline="0"/>
+              <a:t>社員</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="wavyDbl" baseline="0"/>
+              <a:t>id</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>日付</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>交通費</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>交通種別（電車、タクシーなど）</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>出発地</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>目的地</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>承認ステータス</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="wavyDbl" baseline="0"/>
+              <a:t>作番</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="wavyDbl" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none" baseline="0"/>
+              <a:t>備考</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none" baseline="0"/>
+              <a:t>支払元</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none" baseline="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>271432</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>134693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>274823</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>156015</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線矢印コネクタ 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7B6070-24C7-44EC-9333-9693E4A789A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="0"/>
+          <a:endCxn id="60" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11701432" y="3496458"/>
+          <a:ext cx="3391" cy="693675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>16491</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>88831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>20302</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171902</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="66" name="グループ化 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BD210B7-2021-4FCF-B489-3C5724A811B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7416183" y="1437347"/>
+          <a:ext cx="2013250" cy="971921"/>
+          <a:chOff x="3261360" y="2354580"/>
+          <a:chExt cx="2023134" cy="1010702"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="67" name="正方形/長方形 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{726CE9E0-E3F8-4B77-94B2-2EB8F69FE6E3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3261360" y="2354580"/>
+            <a:ext cx="2019300" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>交通種別</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="68" name="正方形/長方形 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB323BEE-9BD3-4669-95C2-283B01946B94}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3265194" y="2663146"/>
+            <a:ext cx="2019300" cy="702136"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
+              <a:t>id</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="wavyDbl" baseline="0"/>
+              <a:t>交通手段</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="wavyDbl" baseline="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>18602</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1877437" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC329A75-5271-4C1D-9972-F4487EE7E64A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8759190" y="9300882"/>
+          <a:ext cx="1877437" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>審査承認ルートどうする？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>12007</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>169671</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>26185</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>120166</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直線矢印コネクタ 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51BDA222-FF92-4C7E-BEFF-C130068D7C79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="130" idx="2"/>
+          <a:endCxn id="23" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17493183" y="2634965"/>
+          <a:ext cx="14178" cy="1071083"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>20302</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>48452</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>456143</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>55775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直線矢印コネクタ 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F330AF-6395-4219-8C3D-DD5E21D90376}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="68" idx="3"/>
+          <a:endCxn id="60" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9433243" y="2065511"/>
+          <a:ext cx="1108194" cy="7323"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>362399</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>450512</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209892</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="吹き出し: 四角形 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87FEAC5C-7911-408E-B3BD-5876060D3223}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13137105" y="414618"/>
+          <a:ext cx="2105172" cy="915862"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -52984"/>
+            <a:gd name="adj2" fmla="val 71547"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>自社で支払う場合は作番指定する。客先の場合は客先を支払元に記載</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2825,8 +3666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA24" sqref="AA24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/設計メモ.xlsx
+++ b/設計メモ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77BA662-D835-4FF9-8413-2E3AEB9EF16F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0646158-6F29-43CC-A73D-114403FF85E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,15 +81,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>219595</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>85010</xdr:rowOff>
+      <xdr:colOff>208165</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>185702</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>227215</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>168830</xdr:rowOff>
+      <xdr:colOff>231025</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>74630</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -104,10 +104,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13664749" y="3896915"/>
-          <a:ext cx="2026584" cy="2102784"/>
-          <a:chOff x="6416040" y="2415540"/>
-          <a:chExt cx="2019300" cy="2141220"/>
+          <a:off x="13546975" y="3884940"/>
+          <a:ext cx="2019300" cy="2435369"/>
+          <a:chOff x="6416040" y="2267111"/>
+          <a:chExt cx="2019300" cy="2421340"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -123,7 +123,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6416040" y="2415540"/>
+            <a:off x="6416040" y="2267111"/>
             <a:ext cx="2019300" cy="304800"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -171,8 +171,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6416040" y="2720340"/>
-            <a:ext cx="2019300" cy="1836420"/>
+            <a:off x="6416040" y="2582810"/>
+            <a:ext cx="2019300" cy="2105641"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -209,19 +209,19 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none" strike="dblStrike" baseline="0"/>
               <a:t>日付</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none" strike="dblStrike" baseline="0"/>
               <a:t>(Date</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none" strike="dblStrike" baseline="0"/>
               <a:t>型</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none" strike="dblStrike" baseline="0"/>
               <a:t>)</a:t>
             </a:r>
           </a:p>
@@ -290,6 +290,33 @@
               <a:t>備考欄</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>承認ステータス</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>休暇フラグ</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="dottedHeavy" baseline="0"/>
+              <a:t>勤務区分</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dottedHeavy" baseline="0"/>
+              <a:t>ID</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -322,8 +349,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7382338" y="7219195"/>
-          <a:ext cx="2026584" cy="1540249"/>
+          <a:off x="7326309" y="7449716"/>
+          <a:ext cx="2009775" cy="1590676"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -447,15 +474,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>604750</xdr:colOff>
+      <xdr:colOff>599035</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>156015</xdr:rowOff>
+      <xdr:rowOff>156016</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>612371</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>125535</xdr:rowOff>
+      <xdr:rowOff>135060</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -470,10 +497,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10688139" y="4190133"/>
-          <a:ext cx="2026585" cy="1540248"/>
-          <a:chOff x="3261360" y="2354580"/>
-          <a:chExt cx="2019300" cy="1569720"/>
+          <a:off x="10598380" y="4319802"/>
+          <a:ext cx="2015491" cy="1594484"/>
+          <a:chOff x="3265104" y="2345212"/>
+          <a:chExt cx="2013709" cy="1579088"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -489,8 +516,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3261360" y="2354580"/>
-            <a:ext cx="2019300" cy="304800"/>
+            <a:off x="3268883" y="2345212"/>
+            <a:ext cx="2009930" cy="305110"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -537,8 +564,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3261360" y="2659380"/>
-            <a:ext cx="2019300" cy="1264920"/>
+            <a:off x="3265104" y="2651635"/>
+            <a:ext cx="2013689" cy="1272665"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -614,15 +641,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>612371</xdr:colOff>
+      <xdr:colOff>612351</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>165994</xdr:rowOff>
+      <xdr:rowOff>165435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>219595</xdr:colOff>
+      <xdr:colOff>211975</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>180120</xdr:rowOff>
+      <xdr:rowOff>181387</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -640,8 +667,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="12582698" y="5347594"/>
-          <a:ext cx="937261" cy="14126"/>
+          <a:off x="12714704" y="5096023"/>
+          <a:ext cx="944330" cy="15952"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -669,16 +696,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>31096</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>15133</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>211079</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>208492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>38717</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>215698</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>222511</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>209705</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -693,8 +720,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13476250" y="7190708"/>
-          <a:ext cx="2026585" cy="1537651"/>
+          <a:off x="16209269" y="11315731"/>
+          <a:ext cx="2013587" cy="1612843"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -830,8 +857,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16481796" y="3706048"/>
-          <a:ext cx="2022773" cy="2465835"/>
+          <a:off x="16347325" y="3821309"/>
+          <a:ext cx="2005965" cy="2545077"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="2512092"/>
         </a:xfrm>
@@ -964,7 +991,7 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="dash" baseline="0"/>
-              <a:t>作番</a:t>
+              <a:t>プロジェクト</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dash" baseline="0"/>
@@ -1005,13 +1032,13 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>227215</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>157976</xdr:rowOff>
+      <xdr:rowOff>157971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>345325</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>165994</xdr:rowOff>
+      <xdr:rowOff>165435</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1029,8 +1056,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="15522633" y="5339576"/>
-          <a:ext cx="783128" cy="8018"/>
+          <a:off x="15691333" y="5088559"/>
+          <a:ext cx="790463" cy="7464"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1082,8 +1109,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3524335" y="3789275"/>
-          <a:ext cx="2026584" cy="2211014"/>
+          <a:off x="3496320" y="3904536"/>
+          <a:ext cx="2009775" cy="2283051"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -1264,8 +1291,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3524336" y="7297571"/>
-          <a:ext cx="2026583" cy="1540248"/>
+          <a:off x="3496321" y="7528092"/>
+          <a:ext cx="2009774" cy="1590675"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -1413,8 +1440,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7382338" y="3857577"/>
-          <a:ext cx="2026584" cy="2193949"/>
+          <a:off x="7326309" y="3980041"/>
+          <a:ext cx="2009775" cy="2265988"/>
           <a:chOff x="3261360" y="1693469"/>
           <a:chExt cx="2019300" cy="2230831"/>
         </a:xfrm>
@@ -1550,13 +1577,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>664524</xdr:colOff>
+      <xdr:colOff>668334</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>180120</xdr:rowOff>
+      <xdr:rowOff>178215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>604750</xdr:colOff>
+      <xdr:colOff>602845</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>187775</xdr:rowOff>
     </xdr:to>
@@ -1767,16 +1794,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>603094</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>15133</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>122154</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>208492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>610715</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>215697</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>122155</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>209704</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1791,8 +1818,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10686483" y="7190708"/>
-          <a:ext cx="2026585" cy="1537650"/>
+          <a:off x="13459059" y="11315731"/>
+          <a:ext cx="2000251" cy="1612842"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019301" cy="1569719"/>
         </a:xfrm>
@@ -1915,16 +1942,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>610715</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>36560</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>122155</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>15742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>31096</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>36561</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>211079</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>15743</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1942,8 +1969,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12581042" y="8515542"/>
-          <a:ext cx="750418" cy="1"/>
+          <a:off x="15457405" y="12275778"/>
+          <a:ext cx="755674" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1967,136 +1994,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>279344</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>125535</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>281000</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>15133</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="121" name="直線矢印コネクタ 120">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06233B97-1ED6-4112-8DE2-01CBBA6DE402}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="2"/>
-          <a:endCxn id="110" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11584653" y="6013717"/>
-          <a:ext cx="1656" cy="1538289"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>124690</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>50470</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>244433</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>61356</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="124" name="吹き出し: 四角形 123">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E940C5-FA16-4E02-A232-EEEDDBA61F11}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12095017" y="6409706"/>
-          <a:ext cx="2114798" cy="952995"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -50969"/>
-            <a:gd name="adj2" fmla="val -90148"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>派遣社員の</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>はどうする？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2125,8 +2022,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16496931" y="1190222"/>
-          <a:ext cx="2017059" cy="1448553"/>
+          <a:off x="16362460" y="1226241"/>
+          <a:ext cx="2000251" cy="1491776"/>
           <a:chOff x="3259363" y="2354580"/>
           <a:chExt cx="2021297" cy="1455972"/>
         </a:xfrm>
@@ -2174,7 +2071,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>作番テーブル</a:t>
+              <a:t>プロジェクトテーブル</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2220,7 +2117,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng" baseline="0"/>
-              <a:t>作番</a:t>
+              <a:t>プロジェクト</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng" baseline="0"/>
@@ -2322,8 +2219,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19553827" y="4222816"/>
-          <a:ext cx="2015153" cy="1417876"/>
+          <a:off x="19391342" y="4352484"/>
+          <a:ext cx="1998344" cy="1468303"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2023134" cy="1455916"/>
         </a:xfrm>
@@ -2590,8 +2487,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3535498" y="1427687"/>
-          <a:ext cx="2013249" cy="1396807"/>
+          <a:off x="3507483" y="1470910"/>
+          <a:ext cx="1996440" cy="1440029"/>
           <a:chOff x="3258004" y="2354580"/>
           <a:chExt cx="2022657" cy="979182"/>
         </a:xfrm>
@@ -2783,8 +2680,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10526458" y="338853"/>
-          <a:ext cx="2341702" cy="3153795"/>
+          <a:off x="10442414" y="346056"/>
+          <a:ext cx="2319290" cy="3254648"/>
           <a:chOff x="3250119" y="2069251"/>
           <a:chExt cx="2356706" cy="3212132"/>
         </a:xfrm>
@@ -2972,13 +2869,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>271432</xdr:colOff>
+      <xdr:colOff>273337</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>134693</xdr:rowOff>
+      <xdr:rowOff>130883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>274823</xdr:colOff>
+      <xdr:colOff>276728</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>156015</xdr:rowOff>
     </xdr:to>
@@ -3051,8 +2948,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7416183" y="1437347"/>
-          <a:ext cx="2013250" cy="971921"/>
+          <a:off x="7354551" y="1480570"/>
+          <a:ext cx="1996441" cy="1000736"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2023134" cy="1010702"/>
         </a:xfrm>
@@ -3164,10 +3061,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>18602</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>591464</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>94363</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1877437" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -3183,7 +3080,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8759190" y="9300882"/>
+          <a:off x="8592464" y="10966470"/>
           <a:ext cx="1877437" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3392,6 +3289,1073 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>自社で支払う場合は作番指定する。客先の場合は客先を支払元に記載</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>616075</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>57069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>635674</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>16622</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="64" name="グループ化 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF88F5F-ABA6-4C0E-B92E-0E23C38F37ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10619230" y="13708843"/>
+          <a:ext cx="2014134" cy="1578803"/>
+          <a:chOff x="3261360" y="2354173"/>
+          <a:chExt cx="2021196" cy="1570127"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="69" name="正方形/長方形 68">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27407143-92F1-4ADF-9314-ED5518C6F6A5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3263801" y="2354173"/>
+            <a:ext cx="2018755" cy="305207"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>資格テーブル</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="70" name="正方形/長方形 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F6C747-5BD9-49EB-B3F5-54AB8515E5B8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3261360" y="2659380"/>
+            <a:ext cx="2019300" cy="1264920"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng"/>
+              <a:t>資格</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
+              <a:t>ID</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>資格名</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>577062</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>16727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>636118</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>19845</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="71" name="グループ化 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A825E40-DA50-4E17-A9A5-8A98D98F26CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10580217" y="11355287"/>
+          <a:ext cx="2053591" cy="1614748"/>
+          <a:chOff x="3261360" y="2354580"/>
+          <a:chExt cx="2019300" cy="1569720"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="73" name="正方形/長方形 72">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F42ECB1D-63F0-40CD-A995-2B18D3883C40}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3261360" y="2354580"/>
+            <a:ext cx="2019300" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>資格取得テーブル</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="74" name="正方形/長方形 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05B620A2-0666-4159-8A79-2E6533FEBE0F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3261360" y="2659380"/>
+            <a:ext cx="2019300" cy="1264920"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng"/>
+              <a:t>社員</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
+              <a:t>ID</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng"/>
+              <a:t>資格</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>271366</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>131250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>273215</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>16727</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線矢印コネクタ 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1745B362-68DD-44D5-99E9-5F7B54A29A8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="73" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11606116" y="5914286"/>
+          <a:ext cx="1849" cy="5437191"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>245649</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>19845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>269968</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>57069</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="直線矢印コネクタ 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E4886C-DE2F-41B0-ACEF-9E568F4BBD40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="69" idx="0"/>
+          <a:endCxn id="74" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11580399" y="12973845"/>
+          <a:ext cx="24319" cy="731188"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>6630</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>168818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>64565</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>168818</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D65B5EA-B5DD-4861-9CCA-8BAD569ED790}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10007880" y="10809604"/>
+          <a:ext cx="8725685" cy="5320393"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>282965</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>16385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>333728</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>54823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="吹き出し: 角を丸めた四角形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECA30275-F25E-4BC4-BAF0-CD96F02A3650}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18951965" y="12739064"/>
+          <a:ext cx="3384513" cy="963723"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -59994"/>
+            <a:gd name="adj2" fmla="val 72825"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>カオナビみたいな</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>システム。今回はややこしいので対象外にするが、拡張できるように備えておく。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>379207</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>130660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>592118</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>74631</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="吹き出し: 四角形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9532567-AFEA-4679-922D-8D6A299ECA5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17714707" y="8689553"/>
+          <a:ext cx="2879911" cy="869257"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -125725"/>
+            <a:gd name="adj2" fmla="val -321017"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>日付を一つにしてしまうと、日勤しか扱えない。日またがりの夜勤に対応できない。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>207684</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15422</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>236259</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="83" name="グループ化 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{222B2A70-F96B-4A32-A68B-E6C92F9D08EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13546494" y="7190196"/>
+          <a:ext cx="2026920" cy="1113971"/>
+          <a:chOff x="6416040" y="2415540"/>
+          <a:chExt cx="2019300" cy="1103526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="84" name="正方形/長方形 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8407BCA-D14B-4235-BEE4-FBA73CE68E9A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6416040" y="2415540"/>
+            <a:ext cx="2019300" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>勤務区分テーブル</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="85" name="正方形/長方形 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{155D71A3-62BF-491D-BC10-9CE7AD3D8D5E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6416040" y="2720340"/>
+            <a:ext cx="2019300" cy="798726"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng"/>
+              <a:t>勤務区分</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
+              <a:t>ID</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+              <a:t>inTime</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+              <a:t>offTime</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>271366</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>131249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>455529</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>208491</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="コネクタ: カギ線 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E92C48F8-F20A-48CB-89BC-0B69774BB737}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="110" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10332880" y="7187521"/>
+          <a:ext cx="5397635" cy="2851163"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>551065</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>74630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>556299</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19232</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="直線矢印コネクタ 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0EE2CC3-2BD0-49D4-8BFF-44DAB7273C3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="0"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="14552815" y="6320309"/>
+          <a:ext cx="5234" cy="869887"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>98293</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>131523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>107819</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>110567</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="93" name="グループ化 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B26FC6-8520-4F87-ACDF-039B6DE74243}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="20096983" y="6612333"/>
+          <a:ext cx="2011681" cy="1594484"/>
+          <a:chOff x="3265104" y="2345212"/>
+          <a:chExt cx="2013709" cy="1579088"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="94" name="正方形/長方形 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B420098-B678-4C75-BF26-E414A03D0FFA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3268883" y="2345212"/>
+            <a:ext cx="2009930" cy="305110"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>有休テーブル</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="95" name="正方形/長方形 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA8248C-3F48-4ACB-A118-A2A104DD8599}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3265104" y="2651635"/>
+            <a:ext cx="2013689" cy="1272665"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng"/>
+              <a:t>社員</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
+              <a:t>id</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>使用できる回数？</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>147886</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>175292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>360797</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>109738</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="吹き出し: 四角形 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E913A35-92CA-4BE0-AAFF-D66982038E3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24150886" y="9890792"/>
+          <a:ext cx="2879911" cy="859732"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -125725"/>
+            <a:gd name="adj2" fmla="val -321017"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>期が変わるごとに有休上限数をシステム管理者がすべて設定するのはきついな・・・。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3666,8 +4630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/設計メモ.xlsx
+++ b/設計メモ.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0646158-6F29-43CC-A73D-114403FF85E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C401F1A-D9BB-4583-93CC-341442911B64}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,8 +104,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13546975" y="3884940"/>
-          <a:ext cx="2019300" cy="2435369"/>
+          <a:off x="13706451" y="3843302"/>
+          <a:ext cx="2047603" cy="2403528"/>
           <a:chOff x="6416040" y="2267111"/>
           <a:chExt cx="2019300" cy="2421340"/>
         </a:xfrm>
@@ -349,8 +349,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7326309" y="7449716"/>
-          <a:ext cx="2009775" cy="1590676"/>
+          <a:off x="7406047" y="7360725"/>
+          <a:ext cx="2032363" cy="1569721"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -497,8 +497,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10598380" y="4319802"/>
-          <a:ext cx="2015491" cy="1594484"/>
+          <a:off x="10722749" y="4270816"/>
+          <a:ext cx="2038079" cy="1579244"/>
           <a:chOff x="3265104" y="2345212"/>
           <a:chExt cx="2013709" cy="1579088"/>
         </a:xfrm>
@@ -720,8 +720,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16209269" y="11315731"/>
-          <a:ext cx="2013587" cy="1612843"/>
+          <a:off x="16409022" y="11181292"/>
+          <a:ext cx="2036175" cy="1601413"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -857,8 +857,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16347325" y="3821309"/>
-          <a:ext cx="2005965" cy="2545077"/>
+          <a:off x="16543268" y="3775861"/>
+          <a:ext cx="2028553" cy="2515141"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="2512092"/>
         </a:xfrm>
@@ -1109,8 +1109,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3496320" y="3904536"/>
-          <a:ext cx="2009775" cy="2283051"/>
+          <a:off x="3535236" y="3859088"/>
+          <a:ext cx="2032363" cy="2253932"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -1212,18 +1212,38 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>dummy_id</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="wavyDbl" baseline="0"/>
-              <a:t>オフィス</a:t>
+              <a:t>saro_id</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>カレンダー</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>I</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="wavyDbl" baseline="0"/>
-              <a:t>ID</a:t>
+              <a:t>D</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -1291,8 +1311,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3496321" y="7528092"/>
-          <a:ext cx="2009774" cy="1590675"/>
+          <a:off x="3535237" y="7439101"/>
+          <a:ext cx="2032362" cy="1569720"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -1440,8 +1460,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7326309" y="3980041"/>
-          <a:ext cx="2009775" cy="2265988"/>
+          <a:off x="7406047" y="3931872"/>
+          <a:ext cx="2032363" cy="2240678"/>
           <a:chOff x="3261360" y="1693469"/>
           <a:chExt cx="2019300" cy="2230831"/>
         </a:xfrm>
@@ -1818,8 +1838,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13459059" y="11315731"/>
-          <a:ext cx="2000251" cy="1612842"/>
+          <a:off x="13620440" y="11181292"/>
+          <a:ext cx="2024744" cy="1601412"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019301" cy="1569719"/>
         </a:xfrm>
@@ -2022,8 +2042,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16362460" y="1226241"/>
-          <a:ext cx="2000251" cy="1491776"/>
+          <a:off x="16562213" y="1214539"/>
+          <a:ext cx="2024744" cy="1469732"/>
           <a:chOff x="3259363" y="2354580"/>
           <a:chExt cx="2021297" cy="1455972"/>
         </a:xfrm>
@@ -2219,8 +2239,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19391342" y="4352484"/>
-          <a:ext cx="1998344" cy="1468303"/>
+          <a:off x="19631916" y="4303498"/>
+          <a:ext cx="2022837" cy="1449253"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2023134" cy="1455916"/>
         </a:xfrm>
@@ -2487,8 +2507,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3507483" y="1470910"/>
-          <a:ext cx="1996440" cy="1440029"/>
+          <a:off x="3544494" y="1452676"/>
+          <a:ext cx="2020933" cy="1421796"/>
           <a:chOff x="3258004" y="2354580"/>
           <a:chExt cx="2022657" cy="979182"/>
         </a:xfrm>
@@ -2536,7 +2556,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>オフィステーブル</a:t>
+              <a:t>カレンダー設定テーブル</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2582,14 +2602,22 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
-              <a:t>OfficeID</a:t>
+              <a:t>CalendarID</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>オフィス名</a:t>
+              <a:t>カレンダー名</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>基本休日</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
           </a:p>
@@ -2680,8 +2708,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10442414" y="346056"/>
-          <a:ext cx="2319290" cy="3254648"/>
+          <a:off x="10561068" y="343335"/>
+          <a:ext cx="2359567" cy="3220358"/>
           <a:chOff x="3250119" y="2069251"/>
           <a:chExt cx="2356706" cy="3212132"/>
         </a:xfrm>
@@ -2948,8 +2976,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7354551" y="1480570"/>
-          <a:ext cx="1996441" cy="1000736"/>
+          <a:off x="7440548" y="1460431"/>
+          <a:ext cx="2028554" cy="997471"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2023134" cy="1010702"/>
         </a:xfrm>
@@ -3321,8 +3349,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10619230" y="13708843"/>
-          <a:ext cx="2014134" cy="1578803"/>
+          <a:off x="10739789" y="13544469"/>
+          <a:ext cx="2044342" cy="1559753"/>
           <a:chOff x="3261360" y="2354173"/>
           <a:chExt cx="2021196" cy="1570127"/>
         </a:xfrm>
@@ -3461,8 +3489,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10580217" y="11355287"/>
-          <a:ext cx="2053591" cy="1614748"/>
+          <a:off x="10700776" y="11218127"/>
+          <a:ext cx="2083799" cy="1603318"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -3923,8 +3951,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13546494" y="7190196"/>
-          <a:ext cx="2026920" cy="1113971"/>
+          <a:off x="13705970" y="7102022"/>
+          <a:ext cx="2053318" cy="1103085"/>
           <a:chOff x="6416040" y="2415540"/>
           <a:chExt cx="2019300" cy="1103526"/>
         </a:xfrm>
@@ -4182,8 +4210,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20096983" y="6612333"/>
-          <a:ext cx="2011681" cy="1594484"/>
+          <a:off x="20345722" y="6532323"/>
+          <a:ext cx="2034268" cy="1579244"/>
           <a:chOff x="3265104" y="2345212"/>
           <a:chExt cx="2013709" cy="1579088"/>
         </a:xfrm>
@@ -4630,7 +4658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>

--- a/設計メモ.xlsx
+++ b/設計メモ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C401F1A-D9BB-4583-93CC-341442911B64}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7560D18-CD36-426F-ABDE-8FC857C334E7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,15 +81,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>208165</xdr:colOff>
+      <xdr:colOff>208162</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>185702</xdr:rowOff>
+      <xdr:rowOff>28822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>231025</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>74630</xdr:rowOff>
+      <xdr:colOff>231789</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142093</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -104,10 +104,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13706451" y="3843302"/>
-          <a:ext cx="2047603" cy="2403528"/>
-          <a:chOff x="6416040" y="2267111"/>
-          <a:chExt cx="2019300" cy="2421340"/>
+          <a:off x="13659031" y="3612799"/>
+          <a:ext cx="2036876" cy="3250918"/>
+          <a:chOff x="6409461" y="2267111"/>
+          <a:chExt cx="2025879" cy="3363379"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -171,8 +171,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6416040" y="2582810"/>
-            <a:ext cx="2019300" cy="2105641"/>
+            <a:off x="6409461" y="2588917"/>
+            <a:ext cx="2025117" cy="3041573"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -207,25 +207,6 @@
             </a:r>
           </a:p>
           <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none" strike="dblStrike" baseline="0"/>
-              <a:t>日付</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none" strike="dblStrike" baseline="0"/>
-              <a:t>(Date</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none" strike="dblStrike" baseline="0"/>
-              <a:t>型</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none" strike="dblStrike" baseline="0"/>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
             <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
               <a:lnSpc>
                 <a:spcPct val="100000"/>
@@ -244,7 +225,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" u="wavyDbl" baseline="0">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1" i="1" u="dotted" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -256,7 +237,7 @@
               <a:t>社員</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="wavyDbl" baseline="0">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1" u="dotted" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -267,20 +248,87 @@
               </a:rPr>
               <a:t>id</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="wavyDbl"/>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>日付</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(Date</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>型</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1" u="dotted"/>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>strat</a:t>
+              <a:t>inTime</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>end</a:t>
+              <a:t>offTime</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -312,6 +360,17 @@
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="dottedHeavy" baseline="0"/>
               <a:t>勤務区分</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dottedHeavy" baseline="0"/>
+              <a:t>ID</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="dottedHeavy" baseline="0"/>
+              <a:t>個人出勤ステータス</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dottedHeavy" baseline="0"/>
@@ -325,16 +384,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>656904</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>45525</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1584</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>102903</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>664524</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>15046</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1584</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>102903</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -349,8 +408,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7406047" y="7360725"/>
-          <a:ext cx="2032363" cy="1569721"/>
+          <a:off x="7397466" y="7496880"/>
+          <a:ext cx="2017059" cy="1568824"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -474,15 +533,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>599035</xdr:colOff>
+      <xdr:colOff>564187</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>156016</xdr:rowOff>
+      <xdr:rowOff>200647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>612371</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>135060</xdr:rowOff>
+      <xdr:colOff>592776</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>206282</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -497,10 +556,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10722749" y="4270816"/>
-          <a:ext cx="2038079" cy="1579244"/>
-          <a:chOff x="3265104" y="2345212"/>
-          <a:chExt cx="2013709" cy="1579088"/>
+          <a:off x="10647576" y="4236670"/>
+          <a:ext cx="2043743" cy="2024598"/>
+          <a:chOff x="3268883" y="2345212"/>
+          <a:chExt cx="2009930" cy="2077447"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -564,8 +623,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3265104" y="2651635"/>
-            <a:ext cx="2013689" cy="1272665"/>
+            <a:off x="3270522" y="2649958"/>
+            <a:ext cx="2004528" cy="1772701"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -631,6 +690,14 @@
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="dotted" baseline="0"/>
+              <a:t>有休数</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
@@ -641,15 +708,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>612351</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>165435</xdr:rowOff>
+      <xdr:colOff>592756</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>211975</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>181387</xdr:rowOff>
+      <xdr:colOff>211972</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>20672</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -666,9 +733,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="12714704" y="5096023"/>
-          <a:ext cx="944330" cy="15952"/>
+        <a:xfrm>
+          <a:off x="12691299" y="5394469"/>
+          <a:ext cx="963922" cy="1217"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -697,15 +764,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>211079</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>208492</xdr:rowOff>
+      <xdr:colOff>207269</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>63046</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>222511</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>209705</xdr:rowOff>
+      <xdr:colOff>209176</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>96645</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -720,8 +787,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16409022" y="11181292"/>
-          <a:ext cx="2036175" cy="1601413"/>
+          <a:off x="16347550" y="16195707"/>
+          <a:ext cx="2018965" cy="1602422"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -835,14 +902,14 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>345325</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>118261</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>178102</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>349135</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>118802</xdr:rowOff>
+      <xdr:colOff>362470</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>201503</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -857,8 +924,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16543268" y="3775861"/>
-          <a:ext cx="2028553" cy="2515141"/>
+          <a:off x="16481796" y="3984292"/>
+          <a:ext cx="2030393" cy="2494410"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="2512092"/>
         </a:xfrm>
@@ -1030,15 +1097,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>227215</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>157971</xdr:rowOff>
+      <xdr:colOff>231023</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>4606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>345325</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>165435</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>14957</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1056,8 +1123,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="15691333" y="5088559"/>
-          <a:ext cx="790463" cy="7464"/>
+          <a:off x="15695141" y="5383430"/>
+          <a:ext cx="786655" cy="10351"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1085,16 +1152,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>160665</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>201488</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>478239</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>169297</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>168285</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>169420</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>478240</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>169990</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1109,10 +1176,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3535236" y="3859088"/>
-          <a:ext cx="2032363" cy="2253932"/>
+          <a:off x="16610900" y="9810166"/>
+          <a:ext cx="2017059" cy="1793634"/>
           <a:chOff x="3261360" y="2354580"/>
-          <a:chExt cx="2019300" cy="1569720"/>
+          <a:chExt cx="2019300" cy="1288190"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1177,7 +1244,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="3261360" y="2659380"/>
-            <a:ext cx="2019300" cy="1264920"/>
+            <a:ext cx="2019300" cy="983390"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1203,22 +1270,7 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>saro_id</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng" baseline="0">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="dotted" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -1230,7 +1282,7 @@
               <a:t>カレンダー</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng" baseline="0">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -1242,9 +1294,17 @@
               <a:t>I</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="wavyDbl" baseline="0"/>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0"/>
               <a:t>D</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none" baseline="0"/>
+              <a:t>カレンダー名</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none" baseline="0"/>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
@@ -1269,7 +1329,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="dotted" baseline="0"/>
-              <a:t>区分</a:t>
+              <a:t>休暇</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0"/>
@@ -1287,16 +1347,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>160666</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>123901</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>461319</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>136904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>168285</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>93421</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>461319</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>98803</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1311,8 +1371,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3535237" y="7439101"/>
-          <a:ext cx="2032362" cy="1569720"/>
+          <a:off x="16599695" y="7080741"/>
+          <a:ext cx="2017058" cy="1530723"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -1360,7 +1420,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>区分テーブル</a:t>
+              <a:t>個人出勤ステータステーブル</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1406,7 +1466,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng"/>
-              <a:t>区分</a:t>
+              <a:t>個人出勤ステータス</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
@@ -1417,15 +1477,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>区分名</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>休みの種類</a:t>
+              <a:t>ステータス名</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
           </a:p>
@@ -1436,16 +1488,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>656904</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>45672</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1584</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>103048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>664524</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>350</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1584</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>65347</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1460,8 +1512,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7406047" y="3931872"/>
-          <a:ext cx="2032363" cy="2240678"/>
+          <a:off x="7397466" y="4135261"/>
+          <a:ext cx="2017059" cy="2203475"/>
           <a:chOff x="3261360" y="1693469"/>
           <a:chExt cx="2019300" cy="2230831"/>
         </a:xfrm>
@@ -1563,17 +1615,6 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="dotted" baseline="0"/>
-              <a:t>カレンダー</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0"/>
-              <a:t>ID</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="dotted" baseline="0"/>
               <a:t>社員番号</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0"/>
@@ -1596,16 +1637,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>668334</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>178215</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1584</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>602845</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>187775</xdr:rowOff>
+      <xdr:colOff>563950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>21059</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1623,8 +1664,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9309760" y="5361720"/>
-          <a:ext cx="1270263" cy="7655"/>
+          <a:off x="9414525" y="5394469"/>
+          <a:ext cx="1236624" cy="1604"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1653,15 +1694,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>328205</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>350</xdr:rowOff>
+      <xdr:colOff>320585</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>65347</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>328205</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>45525</xdr:rowOff>
+      <xdr:colOff>320585</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>102903</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1676,117 +1717,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8308423" y="6359586"/>
-          <a:ext cx="0" cy="1222812"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>496984</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>169420</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>496985</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>123901</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="直線矢印コネクタ 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1103BC41-5AD7-4B52-87FD-17F5B443827F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4487093" y="6293129"/>
-          <a:ext cx="1" cy="1367645"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>168285</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>175481</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>656904</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>187775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="直線矢印コネクタ 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5611C9B-9AEE-4638-BEFA-AE8822249C48}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="29" idx="3"/>
-          <a:endCxn id="59" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5488430" y="5357081"/>
-          <a:ext cx="1818656" cy="12294"/>
+          <a:off x="8388820" y="6340641"/>
+          <a:ext cx="0" cy="1158144"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1815,15 +1747,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>122154</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>208492</xdr:rowOff>
+      <xdr:colOff>129774</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>63046</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>122155</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>209704</xdr:rowOff>
+      <xdr:colOff>129775</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>96644</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1838,8 +1770,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13620440" y="11181292"/>
-          <a:ext cx="2024744" cy="1601412"/>
+          <a:off x="13580643" y="16195707"/>
+          <a:ext cx="2017060" cy="1602421"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019301" cy="1569719"/>
         </a:xfrm>
@@ -1963,15 +1895,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>122155</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>15742</xdr:rowOff>
+      <xdr:colOff>129775</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>98224</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>211079</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>15743</xdr:rowOff>
+      <xdr:colOff>207269</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>98225</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1989,8 +1921,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15457405" y="12275778"/>
-          <a:ext cx="755674" cy="1"/>
+          <a:off x="15593893" y="17131165"/>
+          <a:ext cx="749847" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2019,15 +1951,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>364270</xdr:colOff>
+      <xdr:colOff>328747</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>71539</xdr:rowOff>
+      <xdr:rowOff>65824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>364271</xdr:colOff>
+      <xdr:colOff>328748</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>169671</xdr:rowOff>
+      <xdr:rowOff>173481</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2042,8 +1974,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16562213" y="1214539"/>
-          <a:ext cx="2024744" cy="1469732"/>
+          <a:off x="16461408" y="1184507"/>
+          <a:ext cx="2017059" cy="1450458"/>
           <a:chOff x="3259363" y="2354580"/>
           <a:chExt cx="2021297" cy="1455972"/>
         </a:xfrm>
@@ -2160,15 +2092,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>93454</xdr:colOff>
+      <xdr:colOff>65551</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>47910</xdr:rowOff>
+      <xdr:rowOff>57435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>364270</xdr:colOff>
+      <xdr:colOff>328747</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>48452</xdr:rowOff>
+      <xdr:rowOff>57977</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2186,8 +2118,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="12868160" y="2064969"/>
-          <a:ext cx="3632581" cy="542"/>
+          <a:off x="12840257" y="2074494"/>
+          <a:ext cx="3624961" cy="542"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2216,15 +2148,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>59402</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>188698</xdr:rowOff>
+      <xdr:colOff>55592</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>20612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>57496</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>37751</xdr:rowOff>
+      <xdr:colOff>53686</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>84257</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2239,8 +2171,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19631916" y="4303498"/>
-          <a:ext cx="2022837" cy="1449253"/>
+          <a:off x="19557637" y="4499155"/>
+          <a:ext cx="2015153" cy="1414066"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2023134" cy="1455916"/>
         </a:xfrm>
@@ -2354,15 +2286,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>349135</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>154177</xdr:rowOff>
+      <xdr:colOff>362470</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>215923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>63179</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>157976</xdr:rowOff>
+      <xdr:colOff>59369</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>215923</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2380,283 +2312,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="18304626" y="5335777"/>
-          <a:ext cx="1044080" cy="3799"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>588101</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>219198</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>24816</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>12567</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="吹き出し: 四角形 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F076F5FA-B11D-460E-A916-8001F2F06C1A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1263510" y="2695698"/>
-          <a:ext cx="2138351" cy="919051"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 64655"/>
-            <a:gd name="adj2" fmla="val 118041"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>休日だけ登録する。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>区分は一般の休みか休日だけ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>169923</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>81076</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>166113</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>131272</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="48" name="グループ化 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BBD4E23-3E12-469E-9DC9-A0BE53EFB730}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3544494" y="1452676"/>
-          <a:ext cx="2020933" cy="1421796"/>
-          <a:chOff x="3258004" y="2354580"/>
-          <a:chExt cx="2022657" cy="979182"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="49" name="正方形/長方形 48">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDFE2ECB-D77C-46BE-879D-67D97C06EAD2}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3261360" y="2354580"/>
-            <a:ext cx="2019300" cy="304800"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>カレンダー設定テーブル</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="50" name="正方形/長方形 49">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F08CB94-DD27-48C2-B8A3-88B722EA5820}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3258004" y="2658375"/>
-            <a:ext cx="2022657" cy="675387"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent5"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent5"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
-              <a:t>CalendarID</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>カレンダー名</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>基本休日</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>500881</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>131272</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>502519</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>201488</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="直線矢印コネクタ 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC515662-CF39-41CD-B853-FC0DB7F92E18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="50" idx="2"/>
-          <a:endCxn id="28" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4490990" y="2957599"/>
-          <a:ext cx="1638" cy="1012325"/>
+          <a:off x="18515999" y="5370629"/>
+          <a:ext cx="1041605" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2685,15 +2342,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>437354</xdr:colOff>
+      <xdr:colOff>409451</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>114735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>97264</xdr:colOff>
+      <xdr:colOff>61741</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>134693</xdr:rowOff>
+      <xdr:rowOff>130883</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2708,8 +2365,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10561068" y="343335"/>
-          <a:ext cx="2359567" cy="3220358"/>
+          <a:off x="10492840" y="338853"/>
+          <a:ext cx="2339797" cy="3157605"/>
           <a:chOff x="3250119" y="2069251"/>
           <a:chExt cx="2356706" cy="3212132"/>
         </a:xfrm>
@@ -2897,15 +2554,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>273337</xdr:colOff>
+      <xdr:colOff>238495</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>130883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>276728</xdr:colOff>
+      <xdr:colOff>243086</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>156015</xdr:rowOff>
+      <xdr:rowOff>198742</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2923,8 +2580,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11701432" y="3496458"/>
-          <a:ext cx="3391" cy="693675"/>
+          <a:off x="11668495" y="3492648"/>
+          <a:ext cx="4591" cy="740212"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2952,16 +2609,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>16491</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657131</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>88831</xdr:rowOff>
+      <xdr:rowOff>92641</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>20302</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>653322</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>171902</xdr:rowOff>
+      <xdr:rowOff>168092</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2976,8 +2633,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7440548" y="1460431"/>
-          <a:ext cx="2028554" cy="997471"/>
+          <a:off x="7382565" y="1441157"/>
+          <a:ext cx="2013250" cy="971921"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2023134" cy="1010702"/>
         </a:xfrm>
@@ -3090,9 +2747,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>591464</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>94363</xdr:rowOff>
+      <xdr:colOff>587654</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>171130</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1877437" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -3108,7 +2765,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8592464" y="10966470"/>
+          <a:off x="8655889" y="15859365"/>
           <a:ext cx="1877437" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3147,16 +2804,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>12007</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>663014</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>169671</xdr:rowOff>
+      <xdr:rowOff>173481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>26185</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>120166</xdr:rowOff>
+      <xdr:colOff>15817</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>174292</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3173,9 +2830,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="17493183" y="2634965"/>
-          <a:ext cx="14178" cy="1071083"/>
+        <a:xfrm>
+          <a:off x="17471838" y="2638775"/>
+          <a:ext cx="25155" cy="1345517"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3203,16 +2860,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>20302</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>653322</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>48452</xdr:rowOff>
+      <xdr:rowOff>57977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>456143</xdr:colOff>
+      <xdr:colOff>420620</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>55775</xdr:rowOff>
+      <xdr:rowOff>59585</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3230,8 +2887,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9433243" y="2065511"/>
-          <a:ext cx="1108194" cy="7323"/>
+          <a:off x="9393910" y="2075036"/>
+          <a:ext cx="1112004" cy="1608"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3260,15 +2917,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>362399</xdr:colOff>
+      <xdr:colOff>324971</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>450512</xdr:colOff>
+      <xdr:colOff>420704</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>209892</xdr:rowOff>
+      <xdr:rowOff>206082</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3283,8 +2940,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13137105" y="414618"/>
-          <a:ext cx="2105172" cy="915862"/>
+          <a:off x="13099677" y="414618"/>
+          <a:ext cx="2112792" cy="912052"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -3326,15 +2983,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>616075</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>57069</xdr:rowOff>
+      <xdr:colOff>629410</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>130026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>635674</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>16622</xdr:rowOff>
+      <xdr:colOff>631864</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>99104</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3349,8 +3006,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10739789" y="13544469"/>
-          <a:ext cx="2044342" cy="1559753"/>
+          <a:off x="10710894" y="18511483"/>
+          <a:ext cx="2019513" cy="1530282"/>
           <a:chOff x="3261360" y="2354173"/>
           <a:chExt cx="2021196" cy="1570127"/>
         </a:xfrm>
@@ -3466,15 +3123,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>577062</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>16727</xdr:rowOff>
+      <xdr:colOff>588492</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>99209</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>636118</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>19845</xdr:rowOff>
+      <xdr:colOff>632308</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>62322</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3489,8 +3146,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10700776" y="11218127"/>
-          <a:ext cx="2083799" cy="1603318"/>
+          <a:off x="10677596" y="16231870"/>
+          <a:ext cx="2053255" cy="1531936"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -3611,15 +3268,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>271366</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>131250</xdr:rowOff>
+      <xdr:colOff>245034</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>210092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>273215</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>16727</xdr:rowOff>
+      <xdr:colOff>276129</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>95399</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3637,8 +3294,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11606116" y="5914286"/>
-          <a:ext cx="1849" cy="5437191"/>
+          <a:off x="11671224" y="6257458"/>
+          <a:ext cx="33000" cy="9978222"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3667,15 +3324,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>245649</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>19845</xdr:rowOff>
+      <xdr:colOff>249459</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>62322</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>269968</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>57069</xdr:rowOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>130026</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3693,8 +3350,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="11580399" y="12973845"/>
-          <a:ext cx="24319" cy="731188"/>
+          <a:off x="11679459" y="17767616"/>
+          <a:ext cx="20509" cy="740057"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3723,15 +3380,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>6630</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>168818</xdr:rowOff>
+      <xdr:colOff>19965</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>17658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>64565</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>168818</xdr:rowOff>
+      <xdr:colOff>60755</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>17658</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3746,8 +3403,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10007880" y="10809604"/>
-          <a:ext cx="8725685" cy="5320393"/>
+          <a:off x="10105259" y="15705893"/>
+          <a:ext cx="8781378" cy="5154706"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3787,15 +3444,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>282965</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>16385</xdr:rowOff>
+      <xdr:colOff>286775</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>77913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>333728</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>54823</xdr:rowOff>
+      <xdr:colOff>326108</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>129685</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3810,8 +3467,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18951965" y="12739064"/>
-          <a:ext cx="3384513" cy="963723"/>
+          <a:off x="19112657" y="17559089"/>
+          <a:ext cx="3401098" cy="948243"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3861,82 +3518,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>379207</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>130660</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>592118</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>74631</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="吹き出し: 四角形 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9532567-AFEA-4679-922D-8D6A299ECA5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17714707" y="8689553"/>
-          <a:ext cx="2879911" cy="869257"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -125725"/>
-            <a:gd name="adj2" fmla="val -321017"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>日付を一つにしてしまうと、日勤しか扱えない。日またがりの夜勤に対応できない。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>207684</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>15422</xdr:rowOff>
+      <xdr:colOff>211494</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>58793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>236259</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>204107</xdr:rowOff>
+      <xdr:colOff>243879</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3951,10 +3542,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13705970" y="7102022"/>
-          <a:ext cx="2053318" cy="1103085"/>
+          <a:off x="13654743" y="9019689"/>
+          <a:ext cx="2057064" cy="3497282"/>
           <a:chOff x="6416040" y="2415540"/>
-          <a:chExt cx="2019300" cy="1103526"/>
+          <a:chExt cx="2019300" cy="3518701"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -4018,8 +3609,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6416040" y="2720340"/>
-            <a:ext cx="2019300" cy="798726"/>
+            <a:off x="6416040" y="2720339"/>
+            <a:ext cx="2019300" cy="3213902"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4052,20 +3643,339 @@
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
               <a:t>ID</a:t>
             </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none" baseline="0"/>
+              <a:t>勤務区分名</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none" baseline="0"/>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
-              <a:t>inTime</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
+              <a:t>inTime(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+              <a:t>作業開始時刻</a:t>
+            </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
-              <a:t>offTime</a:t>
-            </a:r>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+              <a:t>offTime(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+              <a:t>作業終了時刻</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="dotted" baseline="0"/>
+              <a:t>カレンダー</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0"/>
+              <a:t>ID</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="dotted" baseline="0"/>
+              <a:t>月</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="dotted" baseline="0"/>
+              <a:t>出勤ステータス</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0"/>
+              <a:t>ID)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="dotted" baseline="0"/>
+              <a:t>火</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" u="dotted" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>出勤ステータス</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="dotted" baseline="0"/>
+              <a:t>水</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" u="dotted" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>出勤ステータス</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="dotted" baseline="0"/>
+              <a:t>木</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" u="dotted" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>出勤ステータス</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="dotted" baseline="0"/>
+              <a:t>金</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" u="dotted" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>出勤ステータス</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="dotted" baseline="0"/>
+              <a:t>土</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" u="dotted" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>出勤ステータス</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="dotted" baseline="0"/>
+              <a:t>日</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" u="dotted" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>出勤ステータス</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ID)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -4075,15 +3985,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>271366</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>131249</xdr:rowOff>
+      <xdr:colOff>245034</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>210091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>455529</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>208491</xdr:rowOff>
+      <xdr:colOff>467856</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>59235</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4101,11 +4011,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="10332880" y="7187521"/>
-          <a:ext cx="5397635" cy="2851163"/>
+          <a:off x="8157264" y="9771417"/>
+          <a:ext cx="9942059" cy="2914139"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 78200"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -4131,15 +4043,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>551065</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>74630</xdr:rowOff>
+      <xdr:colOff>557674</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>140188</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>556299</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19232</xdr:rowOff>
+      <xdr:colOff>563863</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>58793</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4157,8 +4069,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="14552815" y="6320309"/>
-          <a:ext cx="5234" cy="869887"/>
+          <a:off x="14677086" y="6863717"/>
+          <a:ext cx="6189" cy="2159782"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4186,23 +4098,192 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>98293</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>131523</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>247689</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>157723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>107819</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>110567</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>478239</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>162155</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="直線矢印コネクタ 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A1CAB15-B792-4089-BAAE-F02CFD73BB25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="85" idx="3"/>
+          <a:endCxn id="29" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15711807" y="10915370"/>
+          <a:ext cx="902903" cy="4432"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>138254</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>173800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>158769</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>36051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="直線矢印コネクタ 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7F9198-183A-441C-B9DD-52F3D26E7C7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="133" idx="0"/>
+          <a:endCxn id="29" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="17619430" y="11603800"/>
+          <a:ext cx="20515" cy="1206957"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>463224</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57591</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="コネクタ: カギ線 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AADA06D3-E91F-4D28-8D62-3A0F766982B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="15688235" y="6656295"/>
+          <a:ext cx="911460" cy="573061"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>485412</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>36052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>498716</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>208734</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="93" name="グループ化 92">
+        <xdr:cNvPr id="132" name="グループ化 131">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B26FC6-8520-4F87-ACDF-039B6DE74243}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C021608-16D9-42FB-ACD3-DEA61422645B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4210,18 +4291,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20345722" y="6532323"/>
-          <a:ext cx="2034268" cy="1579244"/>
-          <a:chOff x="3265104" y="2345212"/>
-          <a:chExt cx="2013709" cy="1579088"/>
+          <a:off x="16619978" y="12810758"/>
+          <a:ext cx="2032267" cy="1521198"/>
+          <a:chOff x="3263259" y="2354580"/>
+          <a:chExt cx="2019236" cy="1565788"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="94" name="正方形/長方形 93">
+          <xdr:cNvPr id="133" name="正方形/長方形 132">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B420098-B678-4C75-BF26-E414A03D0FFA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69085711-450D-44FB-A345-B58BE6A4F837}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4229,8 +4310,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3268883" y="2345212"/>
-            <a:ext cx="2009930" cy="305110"/>
+            <a:off x="3265171" y="2354580"/>
+            <a:ext cx="2017324" cy="306327"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4259,17 +4340,17 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>有休テーブル</a:t>
+              <a:t>休暇種別テーブル</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="95" name="正方形/長方形 94">
+          <xdr:cNvPr id="138" name="正方形/長方形 137">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA8248C-3F48-4ACB-A118-A2A104DD8599}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A0F5F6C-2166-4767-BE17-1C59C4880613}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4277,8 +4358,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3265104" y="2651635"/>
-            <a:ext cx="2013689" cy="1272665"/>
+            <a:off x="3263259" y="2658616"/>
+            <a:ext cx="2017434" cy="1261752"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4305,19 +4386,20 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng"/>
-              <a:t>社員</a:t>
+              <a:t>休暇</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
-              <a:t>id</a:t>
+              <a:t>ID</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>使用できる回数？</a:t>
-            </a:r>
+              <a:t>休暇名</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -4326,68 +4408,58 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>147886</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>175292</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>561958</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>360797</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>109738</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>483507</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>47500</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="吹き出し: 四角形 95">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="コネクタ: カギ線 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E913A35-92CA-4BE0-AAFF-D66982038E3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19D0784A-76E8-45C9-9B68-FC15FAE99FDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="138" idx="1"/>
+          <a:endCxn id="85" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24150886" y="9890792"/>
-          <a:ext cx="2879911" cy="859732"/>
+        <a:xfrm rot="10800000">
+          <a:off x="14683275" y="12516972"/>
+          <a:ext cx="1938608" cy="1199799"/>
         </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -125725"/>
-            <a:gd name="adj2" fmla="val -321017"/>
-          </a:avLst>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>期が変わるごとに有休上限数をシステム管理者がすべて設定するのはきついな・・・。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4658,8 +4730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X32" sqref="X32"/>
+    <sheetView tabSelected="1" topLeftCell="E29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/設計メモ.xlsx
+++ b/設計メモ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7560D18-CD36-426F-ABDE-8FC857C334E7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E604EFB-72DC-4A1D-9FB6-A66E317E78EA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,8 +104,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13659031" y="3612799"/>
-          <a:ext cx="2036876" cy="3250918"/>
+          <a:off x="13720154" y="3629099"/>
+          <a:ext cx="2046044" cy="3265180"/>
           <a:chOff x="6409461" y="2267111"/>
           <a:chExt cx="2025879" cy="3363379"/>
         </a:xfrm>
@@ -132,15 +132,15 @@
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
+            <a:schemeClr val="accent2">
               <a:shade val="50000"/>
             </a:schemeClr>
           </a:lnRef>
           <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:fillRef>
           <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:effectRef>
           <a:fontRef idx="minor">
             <a:schemeClr val="lt1"/>
@@ -350,21 +350,10 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>休暇フラグ</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="dottedHeavy" baseline="0"/>
               <a:t>勤務区分</a:t>
             </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dottedHeavy" baseline="0"/>
-              <a:t>ID</a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dottedHeavy" baseline="0"/>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
@@ -408,8 +397,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7397466" y="7496880"/>
-          <a:ext cx="2017059" cy="1568824"/>
+          <a:off x="7431084" y="7530498"/>
+          <a:ext cx="2026227" cy="1575955"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -556,8 +545,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10647576" y="4236670"/>
-          <a:ext cx="2043743" cy="2024598"/>
+          <a:off x="10693418" y="4255007"/>
+          <a:ext cx="2052912" cy="2033767"/>
           <a:chOff x="3268883" y="2345212"/>
           <a:chExt cx="2009930" cy="2077447"/>
         </a:xfrm>
@@ -584,15 +573,15 @@
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
+            <a:schemeClr val="accent2">
               <a:shade val="50000"/>
             </a:schemeClr>
           </a:lnRef>
           <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:fillRef>
           <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:effectRef>
           <a:fontRef idx="minor">
             <a:schemeClr val="lt1"/>
@@ -787,8 +776,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16347550" y="16195707"/>
-          <a:ext cx="2018965" cy="1602422"/>
+          <a:off x="16420897" y="16269054"/>
+          <a:ext cx="2028134" cy="1609554"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -924,8 +913,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16481796" y="3984292"/>
-          <a:ext cx="2030393" cy="2494410"/>
+          <a:off x="16555143" y="4001610"/>
+          <a:ext cx="2039562" cy="2505616"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="2512092"/>
         </a:xfrm>
@@ -1176,8 +1165,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16610900" y="9810166"/>
-          <a:ext cx="2017059" cy="1793634"/>
+          <a:off x="16684247" y="9853971"/>
+          <a:ext cx="2026228" cy="1801784"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1288190"/>
         </a:xfrm>
@@ -1204,15 +1193,15 @@
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
+            <a:schemeClr val="accent2">
               <a:shade val="50000"/>
             </a:schemeClr>
           </a:lnRef>
           <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:fillRef>
           <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:effectRef>
           <a:fontRef idx="minor">
             <a:schemeClr val="lt1"/>
@@ -1371,8 +1360,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16599695" y="7080741"/>
-          <a:ext cx="2017058" cy="1530723"/>
+          <a:off x="16673042" y="7112321"/>
+          <a:ext cx="2026227" cy="1537854"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -1399,15 +1388,15 @@
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
+            <a:schemeClr val="accent2">
               <a:shade val="50000"/>
             </a:schemeClr>
           </a:lnRef>
           <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:fillRef>
           <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:effectRef>
           <a:fontRef idx="minor">
             <a:schemeClr val="lt1"/>
@@ -1512,8 +1501,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7397466" y="4135261"/>
-          <a:ext cx="2017059" cy="2203475"/>
+          <a:off x="7431084" y="4153598"/>
+          <a:ext cx="2026227" cy="2213662"/>
           <a:chOff x="3261360" y="1693469"/>
           <a:chExt cx="2019300" cy="2230831"/>
         </a:xfrm>
@@ -1770,8 +1759,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13580643" y="16195707"/>
-          <a:ext cx="2017060" cy="1602421"/>
+          <a:off x="13641766" y="16269054"/>
+          <a:ext cx="2026228" cy="1609553"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019301" cy="1569719"/>
         </a:xfrm>
@@ -1974,8 +1963,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16461408" y="1184507"/>
-          <a:ext cx="2017059" cy="1450458"/>
+          <a:off x="16534755" y="1189601"/>
+          <a:ext cx="2026228" cy="1456570"/>
           <a:chOff x="3259363" y="2354580"/>
           <a:chExt cx="2021297" cy="1455972"/>
         </a:xfrm>
@@ -2171,8 +2160,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19557637" y="4499155"/>
-          <a:ext cx="2015153" cy="1414066"/>
+          <a:off x="19646266" y="4519529"/>
+          <a:ext cx="2024321" cy="1420178"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2023134" cy="1455916"/>
         </a:xfrm>
@@ -2365,8 +2354,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10492840" y="338853"/>
-          <a:ext cx="2339797" cy="3157605"/>
+          <a:off x="10538682" y="339871"/>
+          <a:ext cx="2352022" cy="3171867"/>
           <a:chOff x="3250119" y="2069251"/>
           <a:chExt cx="2356706" cy="3212132"/>
         </a:xfrm>
@@ -2633,8 +2622,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7382565" y="1441157"/>
-          <a:ext cx="2013250" cy="971921"/>
+          <a:off x="7413127" y="1447269"/>
+          <a:ext cx="2022418" cy="975997"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2023134" cy="1010702"/>
         </a:xfrm>
@@ -3006,8 +2995,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10710894" y="18511483"/>
-          <a:ext cx="2019513" cy="1530282"/>
+          <a:off x="10756736" y="18595018"/>
+          <a:ext cx="2028682" cy="1537412"/>
           <a:chOff x="3261360" y="2354173"/>
           <a:chExt cx="2021196" cy="1570127"/>
         </a:xfrm>
@@ -3146,8 +3135,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10677596" y="16231870"/>
-          <a:ext cx="2053255" cy="1531936"/>
+          <a:off x="10723438" y="16305217"/>
+          <a:ext cx="2062424" cy="1539068"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -3542,8 +3531,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13654743" y="9019689"/>
-          <a:ext cx="2057064" cy="3497282"/>
+          <a:off x="13715866" y="9060438"/>
+          <a:ext cx="2066232" cy="3512562"/>
           <a:chOff x="6416040" y="2415540"/>
           <a:chExt cx="2019300" cy="3518701"/>
         </a:xfrm>
@@ -3570,15 +3559,15 @@
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
+            <a:schemeClr val="accent2">
               <a:shade val="50000"/>
             </a:schemeClr>
           </a:lnRef>
           <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:fillRef>
           <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:effectRef>
           <a:fontRef idx="minor">
             <a:schemeClr val="lt1"/>
@@ -4291,8 +4280,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16619978" y="12810758"/>
-          <a:ext cx="2032267" cy="1521198"/>
+          <a:off x="16693325" y="12868825"/>
+          <a:ext cx="2041436" cy="1527310"/>
           <a:chOff x="3263259" y="2354580"/>
           <a:chExt cx="2019236" cy="1565788"/>
         </a:xfrm>
@@ -4319,15 +4308,15 @@
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
+            <a:schemeClr val="accent2">
               <a:shade val="50000"/>
             </a:schemeClr>
           </a:lnRef>
           <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:fillRef>
           <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:effectRef>
           <a:fontRef idx="minor">
             <a:schemeClr val="lt1"/>
@@ -4460,6 +4449,575 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>321425</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>15876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>363335</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>46730</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="78" name="グループ化 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA46810D-A354-449E-8237-CF40FAA03D3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9105553" y="10150822"/>
+          <a:ext cx="2060517" cy="1379768"/>
+          <a:chOff x="6416040" y="2415540"/>
+          <a:chExt cx="2019300" cy="1385494"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="80" name="正方形/長方形 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8A9B27-B482-45C2-98C9-FBF833D17654}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6416040" y="2415540"/>
+            <a:ext cx="2019300" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>休憩時間テーブル</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="81" name="正方形/長方形 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{546AA037-FE17-481E-B0D0-860B364DB9FB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6416040" y="2720339"/>
+            <a:ext cx="2019300" cy="1080695"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng"/>
+              <a:t>休憩時間</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
+              <a:t>ID</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="dotted"/>
+              <a:t>勤務区分</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted"/>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none" baseline="0"/>
+              <a:t>startTime</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none" baseline="0"/>
+              <a:t>endTime</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>320585</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>65347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>320585</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>102903</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直線矢印コネクタ 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{652938A9-E9BB-452A-B159-576FA507A0A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8388820" y="6340641"/>
+          <a:ext cx="0" cy="1158144"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>363335</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>162155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>207684</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>182610</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="直線矢印コネクタ 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D42E946-E6E2-4B56-96F5-42FC7C683BF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="85" idx="1"/>
+          <a:endCxn id="81" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11120982" y="10919802"/>
+          <a:ext cx="2533761" cy="20455"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>548864</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>30032</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B39C2D-E1B2-43F4-A811-08B65AEEB7EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20719452" y="13252973"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7203FA89-E027-4BF9-B902-05FE30D745CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13335000" y="8684559"/>
+          <a:ext cx="7138147" cy="6174441"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171898</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>18602</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>158787</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="吹き出し: 角を丸めた四角形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FF60FDD-9EE3-4AAC-9D13-91F94DEDB478}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20742088" y="10481310"/>
+          <a:ext cx="2808867" cy="1331595"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -59132"/>
+            <a:gd name="adj2" fmla="val 26314"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 平成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>21</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>年午前</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>II</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　問</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>と同じパターン。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ループがダメというわけではない。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4730,8 +5288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AF35" sqref="AF35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/設計メモ.xlsx
+++ b/設計メモ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E604EFB-72DC-4A1D-9FB6-A66E317E78EA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33566BAA-FEF4-4BBC-B351-E1355CA03E4D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,8 +104,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13720154" y="3629099"/>
-          <a:ext cx="2046044" cy="3265180"/>
+          <a:off x="13659031" y="3612799"/>
+          <a:ext cx="2036876" cy="3250918"/>
           <a:chOff x="6409461" y="2267111"/>
           <a:chExt cx="2025879" cy="3363379"/>
         </a:xfrm>
@@ -359,7 +359,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="dottedHeavy" baseline="0"/>
-              <a:t>個人出勤ステータス</a:t>
+              <a:t>個人休出勤</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dottedHeavy" baseline="0"/>
@@ -397,8 +397,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7431084" y="7530498"/>
-          <a:ext cx="2026227" cy="1575955"/>
+          <a:off x="7397466" y="7496880"/>
+          <a:ext cx="2017059" cy="1568824"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -545,8 +545,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10693418" y="4255007"/>
-          <a:ext cx="2052912" cy="2033767"/>
+          <a:off x="10647576" y="4236670"/>
+          <a:ext cx="2043743" cy="2024598"/>
           <a:chOff x="3268883" y="2345212"/>
           <a:chExt cx="2009930" cy="2077447"/>
         </a:xfrm>
@@ -776,8 +776,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16420897" y="16269054"/>
-          <a:ext cx="2028134" cy="1609554"/>
+          <a:off x="16347550" y="16195707"/>
+          <a:ext cx="2018965" cy="1602422"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -913,8 +913,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16555143" y="4001610"/>
-          <a:ext cx="2039562" cy="2505616"/>
+          <a:off x="16481796" y="3984292"/>
+          <a:ext cx="2030393" cy="2494410"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="2512092"/>
         </a:xfrm>
@@ -1165,8 +1165,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16684247" y="9853971"/>
-          <a:ext cx="2026228" cy="1801784"/>
+          <a:off x="16610900" y="9810166"/>
+          <a:ext cx="2017059" cy="1793634"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1288190"/>
         </a:xfrm>
@@ -1318,7 +1318,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="dotted" baseline="0"/>
-              <a:t>休暇</a:t>
+              <a:t>休出勤</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0"/>
@@ -1360,8 +1360,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16673042" y="7112321"/>
-          <a:ext cx="2026227" cy="1537854"/>
+          <a:off x="16599695" y="7080741"/>
+          <a:ext cx="2017058" cy="1530723"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -1409,7 +1409,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>個人出勤ステータステーブル</a:t>
+              <a:t>個人休出勤種別テーブル</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1455,7 +1455,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng"/>
-              <a:t>個人出勤ステータス</a:t>
+              <a:t>個人休出勤</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
@@ -1465,8 +1465,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>ステータス名</a:t>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng"/>
+              <a:t>休出勤種別</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
           </a:p>
@@ -1501,8 +1501,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7431084" y="4153598"/>
-          <a:ext cx="2026227" cy="2213662"/>
+          <a:off x="7397466" y="4135261"/>
+          <a:ext cx="2017059" cy="2203475"/>
           <a:chOff x="3261360" y="1693469"/>
           <a:chExt cx="2019300" cy="2230831"/>
         </a:xfrm>
@@ -1759,8 +1759,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13641766" y="16269054"/>
-          <a:ext cx="2026228" cy="1609553"/>
+          <a:off x="13580643" y="16195707"/>
+          <a:ext cx="2017060" cy="1602421"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019301" cy="1569719"/>
         </a:xfrm>
@@ -1963,8 +1963,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16534755" y="1189601"/>
-          <a:ext cx="2026228" cy="1456570"/>
+          <a:off x="16461408" y="1184507"/>
+          <a:ext cx="2017059" cy="1450458"/>
           <a:chOff x="3259363" y="2354580"/>
           <a:chExt cx="2021297" cy="1455972"/>
         </a:xfrm>
@@ -2160,8 +2160,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19646266" y="4519529"/>
-          <a:ext cx="2024321" cy="1420178"/>
+          <a:off x="19557637" y="4499155"/>
+          <a:ext cx="2015153" cy="1414066"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2023134" cy="1455916"/>
         </a:xfrm>
@@ -2354,8 +2354,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10538682" y="339871"/>
-          <a:ext cx="2352022" cy="3171867"/>
+          <a:off x="10492840" y="338853"/>
+          <a:ext cx="2339797" cy="3157605"/>
           <a:chOff x="3250119" y="2069251"/>
           <a:chExt cx="2356706" cy="3212132"/>
         </a:xfrm>
@@ -2622,8 +2622,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7413127" y="1447269"/>
-          <a:ext cx="2022418" cy="975997"/>
+          <a:off x="7382565" y="1441157"/>
+          <a:ext cx="2013250" cy="971921"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2023134" cy="1010702"/>
         </a:xfrm>
@@ -2995,8 +2995,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10756736" y="18595018"/>
-          <a:ext cx="2028682" cy="1537412"/>
+          <a:off x="10710894" y="18511483"/>
+          <a:ext cx="2019513" cy="1530282"/>
           <a:chOff x="3261360" y="2354173"/>
           <a:chExt cx="2021196" cy="1570127"/>
         </a:xfrm>
@@ -3135,8 +3135,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10723438" y="16305217"/>
-          <a:ext cx="2062424" cy="1539068"/>
+          <a:off x="10677596" y="16231870"/>
+          <a:ext cx="2053255" cy="1531936"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -3531,8 +3531,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13715866" y="9060438"/>
-          <a:ext cx="2066232" cy="3512562"/>
+          <a:off x="13654743" y="9019689"/>
+          <a:ext cx="2057064" cy="3497282"/>
           <a:chOff x="6416040" y="2415540"/>
           <a:chExt cx="2019300" cy="3518701"/>
         </a:xfrm>
@@ -4280,8 +4280,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16693325" y="12868825"/>
-          <a:ext cx="2041436" cy="1527310"/>
+          <a:off x="16619978" y="12810758"/>
+          <a:ext cx="2032267" cy="1521198"/>
           <a:chOff x="3263259" y="2354580"/>
           <a:chExt cx="2019236" cy="1565788"/>
         </a:xfrm>
@@ -4329,7 +4329,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>休暇種別テーブル</a:t>
+              <a:t>会社休暇種別テーブル</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -4375,7 +4375,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng"/>
-              <a:t>休暇</a:t>
+              <a:t>休出勤</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
@@ -4386,7 +4386,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>休暇名</a:t>
+              <a:t>休出勤種別</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
           </a:p>
@@ -4477,8 +4477,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9105553" y="10150822"/>
-          <a:ext cx="2060517" cy="1379768"/>
+          <a:off x="9065823" y="10104980"/>
+          <a:ext cx="2051349" cy="1373655"/>
           <a:chOff x="6416040" y="2415540"/>
           <a:chExt cx="2019300" cy="1385494"/>
         </a:xfrm>
@@ -5288,8 +5288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AF35" sqref="AF35"/>
+    <sheetView tabSelected="1" topLeftCell="L28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/設計メモ.xlsx
+++ b/設計メモ.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33566BAA-FEF4-4BBC-B351-E1355CA03E4D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D7D393-F6E2-498E-8A17-A8629B71DF65}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,8 +104,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13659031" y="3612799"/>
-          <a:ext cx="2036876" cy="3250918"/>
+          <a:off x="13655221" y="3758140"/>
+          <a:ext cx="2040686" cy="3376424"/>
           <a:chOff x="6409461" y="2267111"/>
           <a:chExt cx="2025879" cy="3363379"/>
         </a:xfrm>
@@ -397,8 +397,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7397466" y="7496880"/>
-          <a:ext cx="2017059" cy="1568824"/>
+          <a:off x="7397466" y="7794621"/>
+          <a:ext cx="2017059" cy="1631576"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -522,15 +522,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>564187</xdr:colOff>
+      <xdr:colOff>550852</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>200647</xdr:rowOff>
+      <xdr:rowOff>46906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>592776</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>206282</xdr:rowOff>
+      <xdr:colOff>588966</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>132567</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -545,10 +545,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10647576" y="4236670"/>
-          <a:ext cx="2043743" cy="2024598"/>
+          <a:off x="10636146" y="4242388"/>
+          <a:ext cx="2055173" cy="2416485"/>
           <a:chOff x="3268883" y="2345212"/>
-          <a:chExt cx="2009930" cy="2077447"/>
+          <a:chExt cx="2009930" cy="2361278"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -612,8 +612,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3270522" y="2649958"/>
-            <a:ext cx="2004528" cy="1772701"/>
+            <a:off x="3270522" y="2649957"/>
+            <a:ext cx="2004528" cy="2056533"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -665,29 +665,37 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>名前</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>メールアドレス</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ステータス</a:t>
+            </a:r>
+            <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>name</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="dotted" baseline="0"/>
-              <a:t>課コード</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="dotted" baseline="0"/>
-              <a:t>有休数</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dotted" baseline="0"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>(is_active)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ロック</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -697,15 +705,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>592756</xdr:colOff>
+      <xdr:colOff>585118</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>19455</xdr:rowOff>
+      <xdr:rowOff>14957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>211972</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>20672</xdr:rowOff>
+      <xdr:rowOff>15769</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -722,9 +730,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12691299" y="5394469"/>
-          <a:ext cx="963922" cy="1217"/>
+        <a:xfrm flipV="1">
+          <a:off x="12687471" y="5393781"/>
+          <a:ext cx="971560" cy="812"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -776,8 +784,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16347550" y="16195707"/>
-          <a:ext cx="2018965" cy="1602422"/>
+          <a:off x="16343740" y="16844975"/>
+          <a:ext cx="2018965" cy="1665176"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -913,8 +921,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16481796" y="3984292"/>
-          <a:ext cx="2030393" cy="2494410"/>
+          <a:off x="16481796" y="4140502"/>
+          <a:ext cx="2034203" cy="2587307"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="2512092"/>
         </a:xfrm>
@@ -1165,8 +1173,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16610900" y="9810166"/>
-          <a:ext cx="2017059" cy="1793634"/>
+          <a:off x="16614710" y="10191838"/>
+          <a:ext cx="2017059" cy="1865352"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1288190"/>
         </a:xfrm>
@@ -1360,8 +1368,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16599695" y="7080741"/>
-          <a:ext cx="2017058" cy="1530723"/>
+          <a:off x="16597790" y="7362457"/>
+          <a:ext cx="2017058" cy="1593475"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -1501,8 +1509,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7397466" y="4135261"/>
-          <a:ext cx="2017059" cy="2203475"/>
+          <a:off x="7397466" y="4298530"/>
+          <a:ext cx="2017059" cy="2293123"/>
           <a:chOff x="3261360" y="1693469"/>
           <a:chExt cx="2019300" cy="2230831"/>
         </a:xfrm>
@@ -1629,13 +1637,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>1584</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>19455</xdr:rowOff>
+      <xdr:rowOff>15344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>563950</xdr:colOff>
+      <xdr:colOff>552528</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>21059</xdr:rowOff>
+      <xdr:rowOff>15769</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1652,9 +1660,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="9414525" y="5394469"/>
-          <a:ext cx="1236624" cy="1604"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9414525" y="5394168"/>
+          <a:ext cx="1223297" cy="425"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1759,8 +1767,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13580643" y="16195707"/>
-          <a:ext cx="2017060" cy="1602421"/>
+          <a:off x="13576833" y="16844975"/>
+          <a:ext cx="2017060" cy="1665175"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019301" cy="1569719"/>
         </a:xfrm>
@@ -1886,13 +1894,13 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>129775</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>98224</xdr:rowOff>
+      <xdr:rowOff>124971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>207269</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>98225</xdr:rowOff>
+      <xdr:rowOff>124972</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1904,13 +1912,13 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="111" idx="3"/>
-          <a:endCxn id="21" idx="1"/>
+          <a:stCxn id="21" idx="1"/>
+          <a:endCxn id="111" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15593893" y="17131165"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="15593893" y="17839230"/>
           <a:ext cx="749847" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1963,8 +1971,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16461408" y="1184507"/>
-          <a:ext cx="2017059" cy="1450458"/>
+          <a:off x="16465218" y="1231236"/>
+          <a:ext cx="2017059" cy="1506151"/>
           <a:chOff x="3259363" y="2354580"/>
           <a:chExt cx="2021297" cy="1455972"/>
         </a:xfrm>
@@ -2160,8 +2168,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19557637" y="4499155"/>
-          <a:ext cx="2015153" cy="1414066"/>
+          <a:off x="19553827" y="4682259"/>
+          <a:ext cx="2015153" cy="1462139"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2023134" cy="1455916"/>
         </a:xfrm>
@@ -2354,8 +2362,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10492840" y="338853"/>
-          <a:ext cx="2339797" cy="3157605"/>
+          <a:off x="10494745" y="347817"/>
+          <a:ext cx="2341702" cy="3279301"/>
           <a:chOff x="3250119" y="2069251"/>
           <a:chExt cx="2356706" cy="3212132"/>
         </a:xfrm>
@@ -2543,15 +2551,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>238495</xdr:colOff>
+      <xdr:colOff>233733</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>130883</xdr:rowOff>
+      <xdr:rowOff>134693</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>243086</xdr:colOff>
+      <xdr:colOff>240222</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>198742</xdr:rowOff>
+      <xdr:rowOff>46906</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2569,8 +2577,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11668495" y="3492648"/>
-          <a:ext cx="4591" cy="740212"/>
+          <a:off x="11663733" y="3496458"/>
+          <a:ext cx="6489" cy="584566"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2622,8 +2630,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7382565" y="1441157"/>
-          <a:ext cx="2013250" cy="971921"/>
+          <a:off x="7380660" y="1491135"/>
+          <a:ext cx="2013250" cy="1007781"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2023134" cy="1010702"/>
         </a:xfrm>
@@ -2735,10 +2743,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>587654</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85631</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>171130</xdr:rowOff>
+      <xdr:rowOff>215954</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1877437" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -2754,7 +2762,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8655889" y="15859365"/>
+          <a:off x="7481513" y="16531719"/>
           <a:ext cx="1877437" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2971,16 +2979,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>629410</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>127387</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>130026</xdr:rowOff>
+      <xdr:rowOff>174850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>631864</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>129841</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>99104</xdr:rowOff>
+      <xdr:rowOff>143928</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2995,8 +3003,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10710894" y="18511483"/>
-          <a:ext cx="2019513" cy="1530282"/>
+          <a:off x="9540328" y="19287603"/>
+          <a:ext cx="2019513" cy="1600654"/>
           <a:chOff x="3261360" y="2354173"/>
           <a:chExt cx="2021196" cy="1570127"/>
         </a:xfrm>
@@ -3111,16 +3119,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>588492</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>86469</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>99209</xdr:rowOff>
+      <xdr:rowOff>144033</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>632308</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>130285</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>62322</xdr:rowOff>
+      <xdr:rowOff>107146</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3135,8 +3143,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10677596" y="16231870"/>
-          <a:ext cx="2053255" cy="1531936"/>
+          <a:off x="9499410" y="16925962"/>
+          <a:ext cx="2060875" cy="1594690"/>
           <a:chOff x="3261360" y="2354580"/>
           <a:chExt cx="2019300" cy="1569720"/>
         </a:xfrm>
@@ -3256,16 +3264,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>245034</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>210092</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444554</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>132567</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>276129</xdr:colOff>
+      <xdr:colOff>232647</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>95399</xdr:rowOff>
+      <xdr:rowOff>144033</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3282,9 +3290,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11671224" y="6257458"/>
-          <a:ext cx="33000" cy="9978222"/>
+        <a:xfrm flipH="1">
+          <a:off x="10529848" y="6658873"/>
+          <a:ext cx="1132799" cy="10267089"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3312,16 +3320,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>249459</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419789</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>62322</xdr:rowOff>
+      <xdr:rowOff>107146</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>269968</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>440298</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>130026</xdr:rowOff>
+      <xdr:rowOff>174850</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3339,8 +3347,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="11679459" y="17767616"/>
-          <a:ext cx="20509" cy="740057"/>
+          <a:off x="10505083" y="18520652"/>
+          <a:ext cx="20509" cy="766951"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3531,8 +3539,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13654743" y="9019689"/>
-          <a:ext cx="2057064" cy="3497282"/>
+          <a:off x="13658553" y="9382087"/>
+          <a:ext cx="2049444" cy="3627942"/>
           <a:chOff x="6416040" y="2415540"/>
           <a:chExt cx="2019300" cy="3518701"/>
         </a:xfrm>
@@ -3969,64 +3977,6 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>245034</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>210091</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>467856</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>59235</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="コネクタ: カギ線 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E92C48F8-F20A-48CB-89BC-0B69774BB737}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="2"/>
-          <a:endCxn id="110" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8157264" y="9771417"/>
-          <a:ext cx="9942059" cy="2914139"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 78200"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -4280,8 +4230,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16619978" y="12810758"/>
-          <a:ext cx="2032267" cy="1521198"/>
+          <a:off x="16621883" y="13321746"/>
+          <a:ext cx="2030362" cy="1571176"/>
           <a:chOff x="3263259" y="2354580"/>
           <a:chExt cx="2019236" cy="1565788"/>
         </a:xfrm>
@@ -4477,8 +4427,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9065823" y="10104980"/>
-          <a:ext cx="2051349" cy="1373655"/>
+          <a:off x="9062013" y="10504582"/>
+          <a:ext cx="2058969" cy="1429348"/>
           <a:chOff x="6416040" y="2415540"/>
           <a:chExt cx="2019300" cy="1385494"/>
         </a:xfrm>
@@ -5018,6 +4968,263 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>385483</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>385484</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>78422</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="89" name="グループ化 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9841D663-048B-40BA-9E04-25394FC8ABC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11143130" y="14729012"/>
+          <a:ext cx="2017060" cy="1665175"/>
+          <a:chOff x="3261360" y="2354580"/>
+          <a:chExt cx="2019301" cy="1569719"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="92" name="正方形/長方形 91">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC4027BA-9213-4196-AB90-5ABEBF16647E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3261360" y="2354580"/>
+            <a:ext cx="2019300" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>所属テーブル</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="93" name="正方形/長方形 92">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F96DC12-6635-4EE6-9472-4930C526D2DD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3261361" y="2659380"/>
+            <a:ext cx="2019300" cy="1264919"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
+              <a:t>id</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="dottedHeavy" baseline="0"/>
+              <a:t>社員コード</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dottedHeavy" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="dottedHeavy" baseline="0"/>
+              <a:t>課コード</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="dottedHeavy" baseline="0"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>232647</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>132566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>49307</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="コネクタ: カギ線 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116A10C5-FB34-48A7-AAEA-7E9BC344587F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="92" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7872084" y="10449435"/>
+          <a:ext cx="8070139" cy="489013"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>49309</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>78423</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>129776</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>124972</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="コネクタ: カギ線 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B28A327-E9BC-4AFF-8AD5-FB8A0AD80656}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="111" idx="1"/>
+          <a:endCxn id="93" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="12151662" y="16394188"/>
+          <a:ext cx="1425173" cy="1445043"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5288,8 +5495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView tabSelected="1" topLeftCell="L16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P75" sqref="P75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/設計メモ.xlsx
+++ b/設計メモ.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D7D393-F6E2-498E-8A17-A8629B71DF65}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431A463B-4A48-45BC-9F9A-216E16034A38}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E-R図" sheetId="1" r:id="rId1"/>
+    <sheet name="画面" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -83,13 +84,13 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>208162</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>28822</xdr:rowOff>
+      <xdr:rowOff>37786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>231789</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>142093</xdr:rowOff>
+      <xdr:rowOff>142092</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -104,10 +105,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13655221" y="3758140"/>
-          <a:ext cx="2040686" cy="3376424"/>
-          <a:chOff x="6409461" y="2267111"/>
-          <a:chExt cx="2025879" cy="3363379"/>
+          <a:off x="13655221" y="3767104"/>
+          <a:ext cx="2040686" cy="3367459"/>
+          <a:chOff x="6409461" y="2276041"/>
+          <a:chExt cx="2025879" cy="3354449"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -123,7 +124,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6416040" y="2267111"/>
+            <a:off x="6416040" y="2276041"/>
             <a:ext cx="2019300" cy="304800"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -5225,6 +5226,460 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7D9246B-DFD7-45EB-9E60-844BBBB0995B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4701540" y="731520"/>
+          <a:ext cx="1303020" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE3FA451-4E9C-47FA-8857-C48815CD77FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6499860" y="1988820"/>
+          <a:ext cx="1303020" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>出退勤画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DC5E647-4B35-4B2E-AFEF-A7AFDBA87B0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4869180" y="1996440"/>
+          <a:ext cx="1303020" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>交通費申請画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2ECE913-8B47-42FC-99B6-3A6D46FB02D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6545580" y="2796540"/>
+          <a:ext cx="1303020" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作業内容入力画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74E6311A-6860-4A33-A167-5CC147FB7379}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2621280" y="2118360"/>
+          <a:ext cx="1303020" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>勤務区分管理画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75AF8004-E706-4B49-81E5-598D74D5CD24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1074420" y="1424940"/>
+          <a:ext cx="1303020" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザ管理画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67137C1D-F7B2-4EDE-8AEF-8A12A0A18537}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1036320" y="2263140"/>
+          <a:ext cx="1303020" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>パラメーター</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>管理画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5495,8 +5950,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P75" sqref="P75"/>
+    <sheetView tabSelected="1" topLeftCell="L19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG37" sqref="AG37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC27FEA7-B4E9-4ED4-88BE-B7B23190F9D8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
